--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\coding\ModelMate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD71CE-6558-4014-BF20-93C60A85BACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF244930-1AE1-41FD-B510-9EAE895B6FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6D2058A1-9920-46B4-837F-68CC5BEABDDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6D2058A1-9920-46B4-837F-68CC5BEABDDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>Model</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Ridge Reg.</t>
+  </si>
+  <si>
+    <t>Random forest Reg.</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,16 +411,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,8 +742,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +753,7 @@
     <col min="3" max="3" width="21.5546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="13" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" style="6" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
@@ -783,13 +789,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -834,9 +840,9 @@
       <c r="AE2" s="11"/>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
@@ -877,9 +883,9 @@
       <c r="AE3" s="11"/>
     </row>
     <row r="4" spans="1:31" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="12" t="s">
         <v>37</v>
       </c>
@@ -920,9 +926,9 @@
       <c r="AE4" s="5"/>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
@@ -963,9 +969,9 @@
       <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
@@ -1006,9 +1012,9 @@
       <c r="AE6" s="11"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1043,9 +1049,9 @@
       <c r="AE7" s="11"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
@@ -1080,9 +1086,9 @@
       <c r="AE8" s="11"/>
     </row>
     <row r="9" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1121,9 +1127,9 @@
       <c r="AE9" s="11"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="8" t="s">
         <v>47</v>
       </c>
@@ -1158,9 +1164,9 @@
       <c r="AE10" s="11"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
@@ -1195,9 +1201,9 @@
       <c r="AE11" s="11"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="8" t="s">
         <v>80</v>
       </c>
@@ -1232,9 +1238,9 @@
       <c r="AE12" s="11"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="8" t="s">
         <v>37</v>
       </c>
@@ -1269,9 +1275,9 @@
       <c r="AE13" s="11"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="11"/>
@@ -1301,9 +1307,9 @@
       <c r="AE14" s="11"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="F15" s="14"/>
       <c r="G15" s="11"/>
       <c r="H15" s="9"/>
@@ -1332,9 +1338,9 @@
       <c r="AE15" s="11"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1373,9 +1379,9 @@
       <c r="AE16" s="11"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
@@ -1410,9 +1416,9 @@
       <c r="AE17" s="11"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="8" t="s">
         <v>37</v>
       </c>
@@ -1447,9 +1453,9 @@
       <c r="AE18" s="11"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
@@ -1481,11 +1487,9 @@
       <c r="AE19" s="11"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="8" t="s">
         <v>48</v>
       </c>
@@ -1517,9 +1521,9 @@
       <c r="AE20" s="11"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
@@ -1551,9 +1555,9 @@
       <c r="AE21" s="11"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -1589,9 +1593,9 @@
       <c r="AE22" s="11"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="8" t="s">
         <v>37</v>
       </c>
@@ -1625,9 +1629,9 @@
       <c r="AE23" s="11"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="8" t="s">
         <v>41</v>
       </c>
@@ -1661,9 +1665,9 @@
       <c r="AE24" s="11"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="8" t="s">
         <v>44</v>
       </c>
@@ -1694,9 +1698,9 @@
       <c r="AE25" s="11"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="8" t="s">
         <v>88</v>
       </c>
@@ -1727,9 +1731,9 @@
       <c r="AE26" s="11"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="8" t="s">
         <v>89</v>
       </c>
@@ -1760,9 +1764,9 @@
       <c r="AE27" s="11"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="G28" s="11"/>
       <c r="H28" s="9"/>
       <c r="I28" s="11"/>
@@ -1790,8 +1794,8 @@
       <c r="AE28" s="11"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1822,8 +1826,8 @@
       <c r="AE29" s="11"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1854,8 +1858,8 @@
       <c r="AE30" s="11"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1886,8 +1890,8 @@
       <c r="AE31" s="11"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="5" t="s">
         <v>8</v>
       </c>
@@ -1918,8 +1922,8 @@
       <c r="AE32" s="11"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
@@ -1950,8 +1954,10 @@
       <c r="AE33" s="11"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C34" s="5" t="s">
         <v>10</v>
       </c>
@@ -1982,12 +1988,8 @@
       <c r="AE34" s="11"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="5" t="s">
         <v>11</v>
       </c>
@@ -2018,8 +2020,8 @@
       <c r="AE35" s="11"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2050,8 +2052,8 @@
       <c r="AE36" s="11"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2082,10 +2084,8 @@
       <c r="AE37" s="11"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
@@ -2116,8 +2116,8 @@
       <c r="AE38" s="11"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
@@ -2148,8 +2148,12 @@
       <c r="AE39" s="11"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="C40" s="5" t="s">
         <v>16</v>
       </c>
@@ -2180,6 +2184,8 @@
       <c r="AE40" s="11"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -2210,6 +2216,8 @@
       <c r="AE41" s="11"/>
     </row>
     <row r="42" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="5" t="s">
         <v>19</v>
       </c>
@@ -2240,6 +2248,10 @@
       <c r="AE42" s="11"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="C43" s="5" t="s">
         <v>20</v>
       </c>
@@ -2270,6 +2282,8 @@
       <c r="AE43" s="11"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="5" t="s">
         <v>21</v>
       </c>
@@ -2300,6 +2314,8 @@
       <c r="AE44" s="11"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="5" t="s">
         <v>22</v>
       </c>
@@ -2330,6 +2346,8 @@
       <c r="AE45" s="11"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
@@ -2549,20 +2567,19 @@
       <c r="AE53" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B2:B32"/>
     <mergeCell ref="F2:F8"/>
-    <mergeCell ref="B20:B34"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="B2:B19"/>
     <mergeCell ref="A2:A34"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C28"/>
     <mergeCell ref="F16:F21"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2572,15 +2589,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF9E5A9-25EA-4F69-9F0C-F00291741D79}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -2863,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -2991,7 +3008,250 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:Y8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>